--- a/Project/Phase 2/Sprint 3/SprintBacklog.xlsx
+++ b/Project/Phase 2/Sprint 3/SprintBacklog.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Filipe\Documents\ES\jabref\Project\Phase 2\Sprint 6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E0C5CE-98AE-4089-BBCB-C345E5F8500F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Folha1" sheetId="1" r:id="rId4"/>
+    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Task Number</t>
   </si>
@@ -34,52 +54,44 @@
     <t>Done</t>
   </si>
   <si>
-    <t>implement author information tab</t>
-  </si>
-  <si>
-    <t>Bruna/Pedro</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>junit testing</t>
-  </si>
-  <si>
-    <t>Antonio/Bruna/Daniel/Pedro</t>
-  </si>
-  <si>
-    <t>filming video demo video</t>
-  </si>
-  <si>
-    <t>Daniel</t>
+    <t>Implement Webcam</t>
+  </si>
+  <si>
+    <t>Antonio/Daniel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
-    <font/>
   </fonts>
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -101,13 +113,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
-    <border/>
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -121,17 +139,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -143,102 +151,89 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -428,104 +423,441 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A2:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="33.0"/>
-    <col customWidth="1" min="4" max="4" width="30.14"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="8"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="8"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="8"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="8"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="8"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="8"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>